--- a/en/docs/Maturity_model_for_full_stack_engineers.xlsx
+++ b/en/docs/Maturity_model_for_full_stack_engineers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE30105-91C2-40B1-BDA6-FA9B3F17631F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABA7F1-B41C-4504-A5E6-8B21DDB8C3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,20 +319,6 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Has selected frameworks and libraries to be used for server applications to meet the requirements of products, and has used these for design and implementation.
- - Has worked on projects until release after selecting products and establishing policies.
- - Can create secure coding guides to be followed by the development team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Has selected a suitable data store to meet the requirements of products, and has used these for design and implementation.
- - Has worked on projects until release after selecting products and establishing policies.
- - Can create secure coding guides to be followed by the development team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Has selected suitable cloud-based infrastructure services to meet the requirements of products, and has used these for design and implementation.
- - Has worked on projects until release after selecting products and establishing policies.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Elements such as application frameworks to be used have been selected.</t>
   </si>
   <si>
@@ -394,6 +380,23 @@
   </si>
   <si>
     <t>Four levels are set for each area (server side, infrastructure, etc.) and four ranks are set based on that number of achieved area and judgment level.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Has experience in selecting frameworks and libraries to be used for server applications to meet the requirements of products, and has experience in using these for design and implementation.
+ - Has worked on projects until release after selecting products and establishing policies.
+ - Can create secure coding guides to be followed by the development team.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Has experience in selecting a suitable data store to meet the requirements of products, and has experience in using these for design and implementation.
+ - Has worked on projects until release after selecting products and establishing policies.
+ - Can create secure coding guides to be followed by the development team.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Has experience in selecting suitable cloud-based infrastructure services to meet the requirements of products, and has experience in using these for design and implementation.
+ - Has worked on projects until release after selecting products and establishing policies.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2835,7 +2838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2921,92 +2924,101 @@
     <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="561">
@@ -5629,7 +5641,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -6793,7 +6805,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -6868,7 +6880,7 @@
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6945,253 +6957,253 @@
     </row>
     <row r="17" spans="1:43" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
     </row>
     <row r="18" spans="1:43" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="31" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="33"/>
+      <c r="AP18" s="33"/>
     </row>
     <row r="19" spans="1:43" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="29" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29" t="s">
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
     </row>
     <row r="20" spans="1:43" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="29" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29" t="s">
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
     </row>
     <row r="21" spans="1:43" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="29" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="32" t="s">
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
+      <c r="AN21" s="34"/>
+      <c r="AO21" s="34"/>
+      <c r="AP21" s="34"/>
     </row>
     <row r="22" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
@@ -7767,11 +7779,6 @@
     <row r="103" customFormat="1" ht="13.2" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:W21"/>
     <mergeCell ref="X17:AP17"/>
     <mergeCell ref="X18:AP18"/>
@@ -7782,6 +7789,11 @@
     <mergeCell ref="F18:W18"/>
     <mergeCell ref="F19:W19"/>
     <mergeCell ref="F20:W20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7865,211 +7877,211 @@
     </row>
     <row r="5" spans="1:58" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="35"/>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="35"/>
-      <c r="AV5" s="35"/>
-    </row>
-    <row r="6" spans="1:58" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+    </row>
+    <row r="6" spans="1:58" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
     </row>
     <row r="7" spans="1:58" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="35"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
     </row>
     <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="35"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -8083,997 +8095,997 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="46" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46" t="s">
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46" t="s">
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="37"/>
+      <c r="AV10" s="37"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="37"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+    </row>
+    <row r="11" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+    </row>
+    <row r="12" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="37"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA12" s="35"/>
+      <c r="BB12" s="35"/>
+      <c r="BC12" s="35"/>
+      <c r="BD12" s="35"/>
+      <c r="BE12" s="35"/>
+      <c r="BF12" s="35"/>
+    </row>
+    <row r="13" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="37"/>
+      <c r="AT13" s="37"/>
+      <c r="AU13" s="37"/>
+      <c r="AV13" s="37"/>
+      <c r="AW13" s="37"/>
+      <c r="AX13" s="37"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="35"/>
+      <c r="BA13" s="35"/>
+      <c r="BB13" s="35"/>
+      <c r="BC13" s="35"/>
+      <c r="BD13" s="35"/>
+      <c r="BE13" s="35"/>
+      <c r="BF13" s="35"/>
+    </row>
+    <row r="14" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="37"/>
+      <c r="AT14" s="37"/>
+      <c r="AU14" s="37"/>
+      <c r="AV14" s="37"/>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="35"/>
+      <c r="BF14" s="35"/>
+    </row>
+    <row r="15" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="35"/>
+      <c r="AS15" s="37"/>
+      <c r="AT15" s="37"/>
+      <c r="AU15" s="37"/>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="35"/>
+      <c r="BA15" s="35"/>
+      <c r="BB15" s="35"/>
+      <c r="BC15" s="35"/>
+      <c r="BD15" s="35"/>
+      <c r="BE15" s="35"/>
+      <c r="BF15" s="35"/>
+    </row>
+    <row r="16" spans="1:58" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="40"/>
+      <c r="AV16" s="40"/>
+      <c r="AW16" s="40"/>
+      <c r="AX16" s="40"/>
+      <c r="AY16" s="40"/>
+      <c r="AZ16" s="36"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="36"/>
+      <c r="BE16" s="36"/>
+      <c r="BF16" s="36"/>
+    </row>
+    <row r="17" spans="2:58" ht="61.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="41"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="41"/>
+      <c r="AV17" s="41"/>
+      <c r="AW17" s="41"/>
+      <c r="AX17" s="41"/>
+      <c r="AY17" s="41"/>
+      <c r="AZ17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA17" s="41"/>
+      <c r="BB17" s="41"/>
+      <c r="BC17" s="41"/>
+      <c r="BD17" s="41"/>
+      <c r="BE17" s="41"/>
+      <c r="BF17" s="41"/>
+    </row>
+    <row r="18" spans="2:58" ht="196.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="46" t="s">
-        <v>40</v>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38" t="s">
+        <v>64</v>
       </c>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="44" t="s">
-        <v>41</v>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38" t="s">
+        <v>65</v>
       </c>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="44"/>
-      <c r="BF10" s="44"/>
-    </row>
-    <row r="11" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="46"/>
-      <c r="AM11" s="46"/>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46"/>
-      <c r="AR11" s="46"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="44"/>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-    </row>
-    <row r="12" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
-      <c r="AP12" s="46"/>
-      <c r="AQ12" s="46"/>
-      <c r="AR12" s="46"/>
-      <c r="AS12" s="57" t="s">
-        <v>45</v>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+    </row>
+    <row r="19" spans="2:58" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="48" t="s">
+        <v>33</v>
       </c>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA12" s="46"/>
-      <c r="BB12" s="46"/>
-      <c r="BC12" s="46"/>
-      <c r="BD12" s="46"/>
-      <c r="BE12" s="46"/>
-      <c r="BF12" s="46"/>
-    </row>
-    <row r="13" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="46"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="46"/>
-      <c r="BA13" s="46"/>
-      <c r="BB13" s="46"/>
-      <c r="BC13" s="46"/>
-      <c r="BD13" s="46"/>
-      <c r="BE13" s="46"/>
-      <c r="BF13" s="46"/>
-    </row>
-    <row r="14" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="46"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="46"/>
-      <c r="BA14" s="46"/>
-      <c r="BB14" s="46"/>
-      <c r="BC14" s="46"/>
-      <c r="BD14" s="46"/>
-      <c r="BE14" s="46"/>
-      <c r="BF14" s="46"/>
-    </row>
-    <row r="15" spans="1:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="46"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="46"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="46"/>
-      <c r="BA15" s="46"/>
-      <c r="BB15" s="46"/>
-      <c r="BC15" s="46"/>
-      <c r="BD15" s="46"/>
-      <c r="BE15" s="46"/>
-      <c r="BF15" s="46"/>
-    </row>
-    <row r="16" spans="1:58" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="47"/>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="47"/>
-      <c r="AO16" s="47"/>
-      <c r="AP16" s="47"/>
-      <c r="AQ16" s="47"/>
-      <c r="AR16" s="47"/>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
-      <c r="AZ16" s="47"/>
-      <c r="BA16" s="47"/>
-      <c r="BB16" s="47"/>
-      <c r="BC16" s="47"/>
-      <c r="BD16" s="47"/>
-      <c r="BE16" s="47"/>
-      <c r="BF16" s="47"/>
-    </row>
-    <row r="17" spans="2:58" ht="61.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="48" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="56" t="s">
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56" t="s">
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="49"/>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="49"/>
+      <c r="AZ19" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA19" s="49"/>
+      <c r="BB19" s="49"/>
+      <c r="BC19" s="49"/>
+      <c r="BD19" s="49"/>
+      <c r="BE19" s="49"/>
+      <c r="BF19" s="49"/>
+    </row>
+    <row r="20" spans="2:58" ht="62.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="38"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+    </row>
+    <row r="21" spans="2:58" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="49"/>
+      <c r="AL21" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56" t="s">
-        <v>46</v>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="49" t="s">
+        <v>59</v>
       </c>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56" t="s">
-        <v>46</v>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="49"/>
+      <c r="AV21" s="49"/>
+      <c r="AW21" s="49"/>
+      <c r="AX21" s="49"/>
+      <c r="AY21" s="49"/>
+      <c r="AZ21" s="49" t="s">
+        <v>59</v>
       </c>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="56"/>
-      <c r="AQ17" s="56"/>
-      <c r="AR17" s="56"/>
-      <c r="AS17" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT17" s="56"/>
-      <c r="AU17" s="56"/>
-      <c r="AV17" s="56"/>
-      <c r="AW17" s="56"/>
-      <c r="AX17" s="56"/>
-      <c r="AY17" s="56"/>
-      <c r="AZ17" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA17" s="56"/>
-      <c r="BB17" s="56"/>
-      <c r="BC17" s="56"/>
-      <c r="BD17" s="56"/>
-      <c r="BE17" s="56"/>
-      <c r="BF17" s="56"/>
-    </row>
-    <row r="18" spans="2:58" ht="196.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="51" t="s">
+      <c r="BA21" s="49"/>
+      <c r="BB21" s="49"/>
+      <c r="BC21" s="49"/>
+      <c r="BD21" s="49"/>
+      <c r="BE21" s="49"/>
+      <c r="BF21" s="49"/>
+    </row>
+    <row r="22" spans="2:58" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="43"/>
-      <c r="AH18" s="43"/>
-      <c r="AI18" s="43"/>
-      <c r="AJ18" s="43"/>
-      <c r="AK18" s="43"/>
-      <c r="AL18" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM18" s="43"/>
-      <c r="AN18" s="43"/>
-      <c r="AO18" s="43"/>
-      <c r="AP18" s="43"/>
-      <c r="AQ18" s="43"/>
-      <c r="AR18" s="43"/>
-      <c r="AS18" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT18" s="43"/>
-      <c r="AU18" s="43"/>
-      <c r="AV18" s="43"/>
-      <c r="AW18" s="43"/>
-      <c r="AX18" s="43"/>
-      <c r="AY18" s="43"/>
-      <c r="AZ18" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA18" s="43"/>
-      <c r="BB18" s="43"/>
-      <c r="BC18" s="43"/>
-      <c r="BD18" s="43"/>
-      <c r="BE18" s="43"/>
-      <c r="BF18" s="43"/>
-    </row>
-    <row r="19" spans="2:58" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="42"/>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT19" s="42"/>
-      <c r="AU19" s="42"/>
-      <c r="AV19" s="42"/>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="42"/>
-      <c r="AY19" s="42"/>
-      <c r="AZ19" s="42" t="s">
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="BA19" s="42"/>
-      <c r="BB19" s="42"/>
-      <c r="BC19" s="42"/>
-      <c r="BD19" s="42"/>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="42"/>
-    </row>
-    <row r="20" spans="2:58" ht="62.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="51" t="s">
-        <v>37</v>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38" t="s">
+        <v>52</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="43" t="s">
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="43"/>
-      <c r="AI20" s="43"/>
-      <c r="AJ20" s="43"/>
-      <c r="AK20" s="43"/>
-      <c r="AL20" s="43" t="s">
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AM20" s="43"/>
-      <c r="AN20" s="43"/>
-      <c r="AO20" s="43"/>
-      <c r="AP20" s="43"/>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="43"/>
-      <c r="AS20" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT20" s="43"/>
-      <c r="AU20" s="43"/>
-      <c r="AV20" s="43"/>
-      <c r="AW20" s="43"/>
-      <c r="AX20" s="43"/>
-      <c r="AY20" s="43"/>
-      <c r="AZ20" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA20" s="43"/>
-      <c r="BB20" s="43"/>
-      <c r="BC20" s="43"/>
-      <c r="BD20" s="43"/>
-      <c r="BE20" s="43"/>
-      <c r="BF20" s="43"/>
-    </row>
-    <row r="21" spans="2:58" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="42"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="42"/>
-      <c r="AL21" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM21" s="42"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT21" s="42"/>
-      <c r="AU21" s="42"/>
-      <c r="AV21" s="42"/>
-      <c r="AW21" s="42"/>
-      <c r="AX21" s="42"/>
-      <c r="AY21" s="42"/>
-      <c r="AZ21" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA21" s="42"/>
-      <c r="BB21" s="42"/>
-      <c r="BC21" s="42"/>
-      <c r="BD21" s="42"/>
-      <c r="BE21" s="42"/>
-      <c r="BF21" s="42"/>
-    </row>
-    <row r="22" spans="2:58" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="43" t="s">
+      <c r="AT22" s="38"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="38"/>
+      <c r="AZ22" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF22" s="43"/>
-      <c r="AG22" s="43"/>
-      <c r="AH22" s="43"/>
-      <c r="AI22" s="43"/>
-      <c r="AJ22" s="43"/>
-      <c r="AK22" s="43"/>
-      <c r="AL22" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM22" s="43"/>
-      <c r="AN22" s="43"/>
-      <c r="AO22" s="43"/>
-      <c r="AP22" s="43"/>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="43"/>
-      <c r="AS22" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT22" s="43"/>
-      <c r="AU22" s="43"/>
-      <c r="AV22" s="43"/>
-      <c r="AW22" s="43"/>
-      <c r="AX22" s="43"/>
-      <c r="AY22" s="43"/>
-      <c r="AZ22" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA22" s="43"/>
-      <c r="BB22" s="43"/>
-      <c r="BC22" s="43"/>
-      <c r="BD22" s="43"/>
-      <c r="BE22" s="43"/>
-      <c r="BF22" s="43"/>
+      <c r="BA22" s="38"/>
+      <c r="BB22" s="38"/>
+      <c r="BC22" s="38"/>
+      <c r="BD22" s="38"/>
+      <c r="BE22" s="38"/>
+      <c r="BF22" s="38"/>
     </row>
     <row r="23" spans="2:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="38"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="37"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="38"/>
-      <c r="AZ23" s="36"/>
-      <c r="BA23" s="37"/>
-      <c r="BB23" s="37"/>
-      <c r="BC23" s="37"/>
-      <c r="BD23" s="37"/>
-      <c r="BE23" s="37"/>
-      <c r="BF23" s="38"/>
-    </row>
-    <row r="24" spans="2:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="50"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="49"/>
-      <c r="AW24" s="49"/>
-      <c r="AX24" s="49"/>
-      <c r="AY24" s="50"/>
-      <c r="AZ24" s="48"/>
-      <c r="BA24" s="49"/>
-      <c r="BB24" s="49"/>
-      <c r="BC24" s="49"/>
-      <c r="BD24" s="49"/>
-      <c r="BE24" s="49"/>
-      <c r="BF24" s="50"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="52"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="51"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="52"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="51"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="52"/>
+    </row>
+    <row r="24" spans="2:58" ht="50.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="46"/>
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="47"/>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="46"/>
+      <c r="AU24" s="46"/>
+      <c r="AV24" s="46"/>
+      <c r="AW24" s="46"/>
+      <c r="AX24" s="46"/>
+      <c r="AY24" s="47"/>
+      <c r="AZ24" s="45"/>
+      <c r="BA24" s="46"/>
+      <c r="BB24" s="46"/>
+      <c r="BC24" s="46"/>
+      <c r="BD24" s="46"/>
+      <c r="BE24" s="46"/>
+      <c r="BF24" s="47"/>
     </row>
     <row r="25" spans="2:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9084,21 +9096,48 @@
     <row r="31" spans="2:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="AL10:AR16"/>
-    <mergeCell ref="AS10:BF11"/>
-    <mergeCell ref="AS18:AY18"/>
-    <mergeCell ref="AS12:AY16"/>
-    <mergeCell ref="AZ12:BF16"/>
-    <mergeCell ref="AL17:AR17"/>
-    <mergeCell ref="AS17:AY17"/>
-    <mergeCell ref="AZ17:BF17"/>
-    <mergeCell ref="X10:AD16"/>
-    <mergeCell ref="AE10:AK16"/>
-    <mergeCell ref="B17:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AK17"/>
+    <mergeCell ref="B5:AV5"/>
+    <mergeCell ref="B6:AV6"/>
+    <mergeCell ref="B7:AV7"/>
+    <mergeCell ref="B8:AV8"/>
+    <mergeCell ref="AS23:AY23"/>
+    <mergeCell ref="B23:I24"/>
+    <mergeCell ref="AS21:AY21"/>
+    <mergeCell ref="B21:I22"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AK20"/>
+    <mergeCell ref="AL20:AR20"/>
+    <mergeCell ref="AS20:AY20"/>
+    <mergeCell ref="B10:I16"/>
+    <mergeCell ref="J10:P16"/>
+    <mergeCell ref="Q10:W16"/>
+    <mergeCell ref="AZ23:BF23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="AL24:AR24"/>
+    <mergeCell ref="AS24:AY24"/>
+    <mergeCell ref="AZ24:BF24"/>
+    <mergeCell ref="AL23:AR23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="AZ21:BF21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AK22"/>
+    <mergeCell ref="AL22:AR22"/>
+    <mergeCell ref="AS22:AY22"/>
+    <mergeCell ref="AZ22:BF22"/>
+    <mergeCell ref="AL21:AR21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AK21"/>
     <mergeCell ref="AZ20:BF20"/>
     <mergeCell ref="AZ18:BF18"/>
     <mergeCell ref="B19:I20"/>
@@ -9115,48 +9154,21 @@
     <mergeCell ref="X18:AD18"/>
     <mergeCell ref="AE18:AK18"/>
     <mergeCell ref="AL18:AR18"/>
-    <mergeCell ref="AZ21:BF21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AK22"/>
-    <mergeCell ref="AL22:AR22"/>
-    <mergeCell ref="AS22:AY22"/>
-    <mergeCell ref="AZ22:BF22"/>
-    <mergeCell ref="AL21:AR21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AK21"/>
-    <mergeCell ref="AZ23:BF23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="AL24:AR24"/>
-    <mergeCell ref="AS24:AY24"/>
-    <mergeCell ref="AZ24:BF24"/>
-    <mergeCell ref="AL23:AR23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B5:AV5"/>
-    <mergeCell ref="B6:AV6"/>
-    <mergeCell ref="B7:AV7"/>
-    <mergeCell ref="B8:AV8"/>
-    <mergeCell ref="AS23:AY23"/>
-    <mergeCell ref="B23:I24"/>
-    <mergeCell ref="AS21:AY21"/>
-    <mergeCell ref="B21:I22"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AK20"/>
-    <mergeCell ref="AL20:AR20"/>
-    <mergeCell ref="AS20:AY20"/>
-    <mergeCell ref="B10:I16"/>
-    <mergeCell ref="J10:P16"/>
-    <mergeCell ref="Q10:W16"/>
+    <mergeCell ref="X10:AD16"/>
+    <mergeCell ref="AE10:AK16"/>
+    <mergeCell ref="B17:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AK17"/>
+    <mergeCell ref="AL10:AR16"/>
+    <mergeCell ref="AS10:BF11"/>
+    <mergeCell ref="AS18:AY18"/>
+    <mergeCell ref="AS12:AY16"/>
+    <mergeCell ref="AZ12:BF16"/>
+    <mergeCell ref="AL17:AR17"/>
+    <mergeCell ref="AS17:AY17"/>
+    <mergeCell ref="AZ17:BF17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
